--- a/experiments/linguistic/train.1.000/1-gram-weights.xlsx
+++ b/experiments/linguistic/train.1.000/1-gram-weights.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C180"/>
+  <dimension ref="A1:C189"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -453,10 +453,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3956</v>
+        <v>3893</v>
       </c>
       <c r="C2" t="n">
-        <v>0.03622677448008718</v>
+        <v>0.03455131220434354</v>
       </c>
     </row>
     <row r="3">
@@ -466,10 +466,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2474</v>
+        <v>2540</v>
       </c>
       <c r="C3" t="n">
-        <v>0.02265547018800194</v>
+        <v>0.02254311148189895</v>
       </c>
     </row>
     <row r="4">
@@ -479,10 +479,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2349</v>
+        <v>2313</v>
       </c>
       <c r="C4" t="n">
-        <v>0.02151079202571405</v>
+        <v>0.02052843183371349</v>
       </c>
     </row>
     <row r="5">
@@ -492,10 +492,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2062</v>
+        <v>2078</v>
       </c>
       <c r="C5" t="n">
-        <v>0.01888261096510105</v>
+        <v>0.01844275025960079</v>
       </c>
     </row>
     <row r="6">
@@ -505,10 +505,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2000</v>
+        <v>1997</v>
       </c>
       <c r="C6" t="n">
-        <v>0.01831485059660626</v>
+        <v>0.01772385575958748</v>
       </c>
     </row>
     <row r="7">
@@ -518,10 +518,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1706</v>
+        <v>1713</v>
       </c>
       <c r="C7" t="n">
-        <v>0.01562256755890514</v>
+        <v>0.01520328738917043</v>
       </c>
     </row>
     <row r="8">
@@ -531,10 +531,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1431</v>
+        <v>1400</v>
       </c>
       <c r="C8" t="n">
-        <v>0.01310427560187178</v>
+        <v>0.01242533703726714</v>
       </c>
     </row>
     <row r="9">
@@ -544,10 +544,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1238</v>
+        <v>1233</v>
       </c>
       <c r="C9" t="n">
-        <v>0.01133689251929927</v>
+        <v>0.01094317183353598</v>
       </c>
     </row>
     <row r="10">
@@ -557,10 +557,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1215</v>
+        <v>1228</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0111262717374383</v>
+        <v>0.01089879562983146</v>
       </c>
     </row>
     <row r="11">
@@ -570,10 +570,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1110</v>
+        <v>1111</v>
       </c>
       <c r="C11" t="n">
-        <v>0.01016474208111647</v>
+        <v>0.009860392463145563</v>
       </c>
     </row>
     <row r="12">
@@ -583,10 +583,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1077</v>
+        <v>1065</v>
       </c>
       <c r="C12" t="n">
-        <v>0.00986254704627247</v>
+        <v>0.009452131389063928</v>
       </c>
     </row>
     <row r="13">
@@ -596,10 +596,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1067</v>
+        <v>1065</v>
       </c>
       <c r="C13" t="n">
-        <v>0.009770972793289439</v>
+        <v>0.009452131389063928</v>
       </c>
     </row>
     <row r="14">
@@ -609,10 +609,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1019</v>
+        <v>1034</v>
       </c>
       <c r="C14" t="n">
-        <v>0.009331416378970888</v>
+        <v>0.009176998926095871</v>
       </c>
     </row>
     <row r="15">
@@ -625,7 +625,7 @@
         <v>1012</v>
       </c>
       <c r="C15" t="n">
-        <v>0.009267314401882767</v>
+        <v>0.008981743629795959</v>
       </c>
     </row>
     <row r="16">
@@ -635,10 +635,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1000</v>
+        <v>1003</v>
       </c>
       <c r="C16" t="n">
-        <v>0.009157425298303129</v>
+        <v>0.008901866463127812</v>
       </c>
     </row>
     <row r="17">
@@ -648,10 +648,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>977</v>
+        <v>980</v>
       </c>
       <c r="C17" t="n">
-        <v>0.008946804516442157</v>
+        <v>0.008697735926086995</v>
       </c>
     </row>
     <row r="18">
@@ -661,166 +661,166 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>967</v>
+        <v>960</v>
       </c>
       <c r="C18" t="n">
-        <v>0.008855230263459126</v>
+        <v>0.008520231111268893</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>bunch</t>
+          <t>monster</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>924</v>
+        <v>910</v>
       </c>
       <c r="C19" t="n">
-        <v>0.008461460975632091</v>
+        <v>0.008076469074223639</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>monster</t>
+          <t>bunch</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>909</v>
+        <v>889</v>
       </c>
       <c r="C20" t="n">
-        <v>0.008324099596157545</v>
+        <v>0.007890089018664632</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>badly</t>
+          <t>okay</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>900</v>
+        <v>852</v>
       </c>
       <c r="C21" t="n">
-        <v>0.008241682768472817</v>
+        <v>0.007561705111251143</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>unless</t>
+          <t>badly</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>873</v>
+        <v>841</v>
       </c>
       <c r="C22" t="n">
-        <v>0.007994432285418632</v>
+        <v>0.007464077463101186</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>mess</t>
+          <t>unless</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>841</v>
+        <v>832</v>
       </c>
       <c r="C23" t="n">
-        <v>0.007701394675872932</v>
+        <v>0.007384200296433041</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>dumb</t>
+          <t>wasted</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>825</v>
+        <v>830</v>
       </c>
       <c r="C24" t="n">
-        <v>0.007554875871100082</v>
+        <v>0.00736644981495123</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>okay</t>
+          <t>mess</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>825</v>
+        <v>830</v>
       </c>
       <c r="C25" t="n">
-        <v>0.007554875871100082</v>
+        <v>0.00736644981495123</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>wasted</t>
+          <t>dumb</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>819</v>
+        <v>826</v>
       </c>
       <c r="C26" t="n">
-        <v>0.007499931319310263</v>
+        <v>0.00733094885198761</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>premise</t>
+          <t>weak</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>773</v>
+        <v>796</v>
       </c>
       <c r="C27" t="n">
-        <v>0.007078689755588318</v>
+        <v>0.007064691629760457</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>weak</t>
+          <t>joke</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>771</v>
+        <v>764</v>
       </c>
       <c r="C28" t="n">
-        <v>0.007060374904991712</v>
+        <v>0.006780683926051494</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>fails</t>
+          <t>premise</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>763</v>
+        <v>759</v>
       </c>
       <c r="C29" t="n">
-        <v>0.006987115502605288</v>
+        <v>0.006736307722346968</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>joke</t>
+          <t>fails</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>734</v>
+        <v>739</v>
       </c>
       <c r="C30" t="n">
-        <v>0.006721550168954497</v>
+        <v>0.006558802907528867</v>
       </c>
     </row>
     <row r="31">
@@ -830,49 +830,49 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>711</v>
+        <v>726</v>
       </c>
       <c r="C31" t="n">
-        <v>0.006510929387093525</v>
+        <v>0.006443424777897101</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>write</t>
+          <t>sit</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>710</v>
+        <v>720</v>
       </c>
       <c r="C32" t="n">
-        <v>0.006501771961795222</v>
+        <v>0.00639017333345167</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>total</t>
+          <t>write</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>708</v>
+        <v>720</v>
       </c>
       <c r="C33" t="n">
-        <v>0.006483457111198615</v>
+        <v>0.00639017333345167</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>zombie</t>
+          <t>total</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>691</v>
+        <v>718</v>
       </c>
       <c r="C34" t="n">
-        <v>0.006327780881127463</v>
+        <v>0.00637242285196986</v>
       </c>
     </row>
     <row r="35">
@@ -882,10 +882,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>690</v>
+        <v>695</v>
       </c>
       <c r="C35" t="n">
-        <v>0.006318623455829159</v>
+        <v>0.006168292314929043</v>
       </c>
     </row>
     <row r="36">
@@ -898,501 +898,501 @@
         <v>689</v>
       </c>
       <c r="C36" t="n">
-        <v>0.006309466030530856</v>
+        <v>0.006115040870483612</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>garbage</t>
+          <t>zombie</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>671</v>
+        <v>676</v>
       </c>
       <c r="C37" t="n">
-        <v>0.0061446323751614</v>
+        <v>0.005999662740851845</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>writers</t>
+          <t>garbage</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>664</v>
+        <v>666</v>
       </c>
       <c r="C38" t="n">
-        <v>0.006080530398073278</v>
+        <v>0.005910910333442794</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>spent</t>
+          <t>writers</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>656</v>
+        <v>660</v>
       </c>
       <c r="C39" t="n">
-        <v>0.006007270995686853</v>
+        <v>0.005857658888997364</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>cover</t>
+          <t>flat</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>643</v>
+        <v>640</v>
       </c>
       <c r="C40" t="n">
-        <v>0.005888224466808912</v>
+        <v>0.005680154074179262</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>plain</t>
+          <t>spent</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="C41" t="n">
-        <v>0.005879067041510609</v>
+        <v>0.005671278833438357</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>flat</t>
+          <t>plain</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>634</v>
+        <v>629</v>
       </c>
       <c r="C42" t="n">
-        <v>0.005805807639124184</v>
+        <v>0.005582526426029306</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>bored</t>
+          <t>cover</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>634</v>
+        <v>626</v>
       </c>
       <c r="C43" t="n">
-        <v>0.005805807639124184</v>
+        <v>0.005555900703806591</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>trash</t>
+          <t>bored</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>614</v>
+        <v>625</v>
       </c>
       <c r="C44" t="n">
-        <v>0.005622659133158121</v>
+        <v>0.005547025463065685</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>laughable</t>
+          <t>trash</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>613</v>
+        <v>606</v>
       </c>
       <c r="C45" t="n">
-        <v>0.005613501707859818</v>
+        <v>0.005378395888988489</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>nudity</t>
+          <t>development</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="C46" t="n">
-        <v>0.005485297753683574</v>
+        <v>0.005298518722320343</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>pay</t>
+          <t>potential</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="C47" t="n">
-        <v>0.005412038351297149</v>
+        <v>0.005227516796393102</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>fake</t>
+          <t>ask</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>583</v>
+        <v>589</v>
       </c>
       <c r="C48" t="n">
-        <v>0.005338778948910724</v>
+        <v>0.005227516796393102</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>potential</t>
+          <t>laughable</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>583</v>
+        <v>588</v>
       </c>
       <c r="C49" t="n">
-        <v>0.005338778948910724</v>
+        <v>0.005218641555652197</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>yeah</t>
+          <t>nudity</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>581</v>
+        <v>587</v>
       </c>
       <c r="C50" t="n">
-        <v>0.005320464098314118</v>
+        <v>0.005209766314911292</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>bother</t>
+          <t>fake</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>579</v>
+        <v>572</v>
       </c>
       <c r="C51" t="n">
-        <v>0.005302149247717511</v>
+        <v>0.005076637703797716</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
         <is>
-          <t>filmmakers</t>
+          <t>attempts</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>579</v>
+        <v>570</v>
       </c>
       <c r="C52" t="n">
-        <v>0.005302149247717511</v>
+        <v>0.005058887222315905</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
         <is>
-          <t>remake</t>
+          <t>gun</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>575</v>
+        <v>562</v>
       </c>
       <c r="C53" t="n">
-        <v>0.0052655195465243</v>
+        <v>0.004987885296388665</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
         <is>
-          <t>attempts</t>
+          <t>yeah</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>571</v>
+        <v>562</v>
       </c>
       <c r="C54" t="n">
-        <v>0.005228889845331087</v>
+        <v>0.004987885296388665</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
         <is>
-          <t>hardly</t>
+          <t>neither</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>570</v>
+        <v>561</v>
       </c>
       <c r="C55" t="n">
-        <v>0.005219732420032783</v>
+        <v>0.00497901005564776</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
         <is>
-          <t>f</t>
+          <t>barely</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="C56" t="n">
-        <v>0.005146473017646359</v>
+        <v>0.004970134814906854</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
         <is>
-          <t>ask</t>
+          <t>van</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>562</v>
+        <v>558</v>
       </c>
       <c r="C57" t="n">
-        <v>0.005146473017646359</v>
+        <v>0.004952384333425044</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
         <is>
-          <t>van</t>
+          <t>filmmakers</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="C58" t="n">
-        <v>0.005137315592348055</v>
+        <v>0.004943509092684139</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
         <is>
-          <t>project</t>
+          <t>failed</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>548</v>
+        <v>556</v>
       </c>
       <c r="C59" t="n">
-        <v>0.005018269063470115</v>
+        <v>0.004934633851943234</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
         <is>
-          <t>sadly</t>
+          <t>bother</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>544</v>
+        <v>556</v>
       </c>
       <c r="C60" t="n">
-        <v>0.004981639362276902</v>
+        <v>0.004934633851943234</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
         <is>
-          <t>barely</t>
+          <t>remake</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>542</v>
+        <v>553</v>
       </c>
       <c r="C61" t="n">
-        <v>0.004963324511680296</v>
+        <v>0.004908008129720518</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="inlineStr">
         <is>
-          <t>gun</t>
+          <t>sadly</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>541</v>
+        <v>552</v>
       </c>
       <c r="C62" t="n">
-        <v>0.004954167086381992</v>
+        <v>0.004899132888979613</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="inlineStr">
         <is>
-          <t>failed</t>
+          <t>hardly</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>540</v>
+        <v>550</v>
       </c>
       <c r="C63" t="n">
-        <v>0.00494500966108369</v>
+        <v>0.004881382407497803</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="inlineStr">
         <is>
-          <t>neither</t>
+          <t>ideas</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>535</v>
+        <v>540</v>
       </c>
       <c r="C64" t="n">
-        <v>0.004899222534592174</v>
+        <v>0.004792630000088753</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="inlineStr">
         <is>
-          <t>disappointing</t>
+          <t>zombies</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>533</v>
+        <v>538</v>
       </c>
       <c r="C65" t="n">
-        <v>0.004880907683995568</v>
+        <v>0.004774879518606942</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="inlineStr">
         <is>
-          <t>ideas</t>
+          <t>missing</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>532</v>
+        <v>537</v>
       </c>
       <c r="C66" t="n">
-        <v>0.004871750258697264</v>
+        <v>0.004766004277866037</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="inlineStr">
         <is>
-          <t>value</t>
+          <t>honestly</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>528</v>
+        <v>537</v>
       </c>
       <c r="C67" t="n">
-        <v>0.004835120557504053</v>
+        <v>0.004766004277866037</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="inlineStr">
         <is>
-          <t>excuse</t>
+          <t>list</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>528</v>
+        <v>534</v>
       </c>
       <c r="C68" t="n">
-        <v>0.004835120557504053</v>
+        <v>0.004739378555643322</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="inlineStr">
         <is>
-          <t>producers</t>
+          <t>alien</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>528</v>
+        <v>532</v>
       </c>
       <c r="C69" t="n">
-        <v>0.004835120557504053</v>
+        <v>0.004721628074161511</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="inlineStr">
         <is>
-          <t>zombies</t>
+          <t>excuse</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>526</v>
+        <v>531</v>
       </c>
       <c r="C70" t="n">
-        <v>0.004816805706907446</v>
+        <v>0.004712752833420607</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="inlineStr">
         <is>
-          <t>list</t>
+          <t>f</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>524</v>
+        <v>528</v>
       </c>
       <c r="C71" t="n">
-        <v>0.00479849085631084</v>
+        <v>0.004686127111197891</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="inlineStr">
         <is>
-          <t>brain</t>
+          <t>producers</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="C72" t="n">
-        <v>0.004780176005714233</v>
+        <v>0.004641750907493366</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="inlineStr">
         <is>
-          <t>honestly</t>
+          <t>project</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>520</v>
+        <v>523</v>
       </c>
       <c r="C73" t="n">
-        <v>0.004761861155117627</v>
+        <v>0.004641750907493366</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="inlineStr">
         <is>
-          <t>makers</t>
+          <t>brain</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>517</v>
+        <v>522</v>
       </c>
       <c r="C74" t="n">
-        <v>0.004734388879222718</v>
+        <v>0.00463287566675246</v>
       </c>
     </row>
     <row r="75">
@@ -1402,205 +1402,205 @@
         </is>
       </c>
       <c r="B75" t="n">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="C75" t="n">
-        <v>0.004734388879222718</v>
+        <v>0.004606249944529745</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="inlineStr">
         <is>
-          <t>shoot</t>
+          <t>spoilers</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="C76" t="n">
-        <v>0.004725231453924414</v>
+        <v>0.004544123259343409</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="inlineStr">
         <is>
-          <t>spoilers</t>
+          <t>value</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="C77" t="n">
-        <v>0.004706916603327808</v>
+        <v>0.004544123259343409</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="inlineStr">
         <is>
-          <t>painful</t>
+          <t>ended</t>
         </is>
       </c>
       <c r="B78" t="n">
         <v>511</v>
       </c>
       <c r="C78" t="n">
-        <v>0.004679444327432899</v>
+        <v>0.004535248018602504</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="inlineStr">
         <is>
-          <t>nowhere</t>
+          <t>disappointing</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>507</v>
+        <v>510</v>
       </c>
       <c r="C79" t="n">
-        <v>0.004642814626239686</v>
+        <v>0.0045263727778616</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="inlineStr">
         <is>
-          <t>concept</t>
+          <t>shoot</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>505</v>
+        <v>509</v>
       </c>
       <c r="C80" t="n">
-        <v>0.00462449977564308</v>
+        <v>0.004517497537120695</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="inlineStr">
         <is>
-          <t>positive</t>
+          <t>store</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>504</v>
+        <v>507</v>
       </c>
       <c r="C81" t="n">
-        <v>0.004615342350344777</v>
+        <v>0.004499747055638884</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="inlineStr">
         <is>
-          <t>science</t>
+          <t>nowhere</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>500</v>
+        <v>504</v>
       </c>
       <c r="C82" t="n">
-        <v>0.004578712649151565</v>
+        <v>0.004473121333416169</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="inlineStr">
         <is>
-          <t>k</t>
+          <t>spend</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="C83" t="n">
-        <v>0.004578712649151565</v>
+        <v>0.004455370851934358</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="inlineStr">
         <is>
-          <t>wrote</t>
+          <t>positive</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="C84" t="n">
-        <v>0.004578712649151565</v>
+        <v>0.004446495611193453</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="inlineStr">
         <is>
-          <t>alien</t>
+          <t>unbelievable</t>
         </is>
       </c>
       <c r="B85" t="n">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="C85" t="n">
-        <v>0.004569555223853262</v>
+        <v>0.004437620370452549</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="inlineStr">
         <is>
-          <t>slasher</t>
+          <t>sick</t>
         </is>
       </c>
       <c r="B86" t="n">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="C86" t="n">
-        <v>0.004569555223853262</v>
+        <v>0.004402119407488928</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="inlineStr">
         <is>
-          <t>villain</t>
+          <t>wrote</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="C87" t="n">
-        <v>0.004569555223853262</v>
+        <v>0.004393244166748023</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="inlineStr">
         <is>
-          <t>biggest</t>
+          <t>grade</t>
         </is>
       </c>
       <c r="B88" t="n">
         <v>494</v>
       </c>
       <c r="C88" t="n">
-        <v>0.004523768097361745</v>
+        <v>0.004384368926007118</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="inlineStr">
         <is>
-          <t>hair</t>
+          <t>accent</t>
         </is>
       </c>
       <c r="B89" t="n">
         <v>493</v>
       </c>
       <c r="C89" t="n">
-        <v>0.004514610672063443</v>
+        <v>0.004375493685266213</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="inlineStr">
         <is>
-          <t>grade</t>
+          <t>painful</t>
         </is>
       </c>
       <c r="B90" t="n">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="C90" t="n">
-        <v>0.004514610672063443</v>
+        <v>0.004339992722302593</v>
       </c>
     </row>
     <row r="91">
@@ -1610,10 +1610,10 @@
         </is>
       </c>
       <c r="B91" t="n">
-        <v>493</v>
+        <v>485</v>
       </c>
       <c r="C91" t="n">
-        <v>0.004514610672063443</v>
+        <v>0.004304491759338972</v>
       </c>
     </row>
     <row r="92">
@@ -1623,205 +1623,205 @@
         </is>
       </c>
       <c r="B92" t="n">
-        <v>492</v>
+        <v>485</v>
       </c>
       <c r="C92" t="n">
-        <v>0.004505453246765139</v>
+        <v>0.004304491759338972</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="inlineStr">
         <is>
-          <t>store</t>
+          <t>bottom</t>
         </is>
       </c>
       <c r="B93" t="n">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="C93" t="n">
-        <v>0.004496295821466836</v>
+        <v>0.004295616518598067</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="inlineStr">
         <is>
-          <t>suddenly</t>
+          <t>slasher</t>
         </is>
       </c>
       <c r="B94" t="n">
-        <v>488</v>
+        <v>483</v>
       </c>
       <c r="C94" t="n">
-        <v>0.004468823545571927</v>
+        <v>0.004286741277857162</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="inlineStr">
         <is>
-          <t>spend</t>
+          <t>biggest</t>
         </is>
       </c>
       <c r="B95" t="n">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="C95" t="n">
-        <v>0.004459666120273624</v>
+        <v>0.004286741277857162</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="inlineStr">
         <is>
-          <t>unbelievable</t>
+          <t>suddenly</t>
         </is>
       </c>
       <c r="B96" t="n">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="C96" t="n">
-        <v>0.004450508694975321</v>
+        <v>0.004277866037116257</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="inlineStr">
         <is>
-          <t>disappointment</t>
+          <t>channel</t>
         </is>
       </c>
       <c r="B97" t="n">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="C97" t="n">
-        <v>0.004423036419080411</v>
+        <v>0.004260115555634447</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="inlineStr">
         <is>
-          <t>accent</t>
+          <t>makers</t>
         </is>
       </c>
       <c r="B98" t="n">
-        <v>483</v>
+        <v>478</v>
       </c>
       <c r="C98" t="n">
-        <v>0.004423036419080411</v>
+        <v>0.004242365074152636</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="inlineStr">
         <is>
-          <t>walk</t>
+          <t>laughing</t>
         </is>
       </c>
       <c r="B99" t="n">
-        <v>482</v>
+        <v>477</v>
       </c>
       <c r="C99" t="n">
-        <v>0.004413878993782108</v>
+        <v>0.004233489833411731</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="inlineStr">
         <is>
-          <t>stick</t>
+          <t>k</t>
         </is>
       </c>
       <c r="B100" t="n">
-        <v>481</v>
+        <v>476</v>
       </c>
       <c r="C100" t="n">
-        <v>0.004404721568483805</v>
+        <v>0.004224614592670826</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="inlineStr">
         <is>
-          <t>vampire</t>
+          <t>hair</t>
         </is>
       </c>
       <c r="B101" t="n">
-        <v>481</v>
+        <v>475</v>
       </c>
       <c r="C101" t="n">
-        <v>0.004404721568483805</v>
+        <v>0.004215739351929921</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="inlineStr">
         <is>
-          <t>channel</t>
+          <t>random</t>
         </is>
       </c>
       <c r="B102" t="n">
         <v>474</v>
       </c>
       <c r="C102" t="n">
-        <v>0.004340619591395683</v>
+        <v>0.004206864111189016</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="inlineStr">
         <is>
-          <t>explain</t>
+          <t>concept</t>
         </is>
       </c>
       <c r="B103" t="n">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="C103" t="n">
-        <v>0.00433146216609738</v>
+        <v>0.004206864111189016</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="inlineStr">
         <is>
-          <t>waiting</t>
+          <t>stick</t>
         </is>
       </c>
       <c r="B104" t="n">
-        <v>468</v>
+        <v>472</v>
       </c>
       <c r="C104" t="n">
-        <v>0.004285675039605865</v>
+        <v>0.004189113629707206</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="inlineStr">
         <is>
-          <t>redeeming</t>
+          <t>disappointment</t>
         </is>
       </c>
       <c r="B105" t="n">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="C105" t="n">
-        <v>0.004285675039605865</v>
+        <v>0.0041802383889663</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="inlineStr">
         <is>
-          <t>bottom</t>
+          <t>walk</t>
         </is>
       </c>
       <c r="B106" t="n">
-        <v>463</v>
+        <v>467</v>
       </c>
       <c r="C106" t="n">
-        <v>0.004239887913114348</v>
+        <v>0.00414473742600268</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="inlineStr">
         <is>
-          <t>sucks</t>
+          <t>college</t>
         </is>
       </c>
       <c r="B107" t="n">
-        <v>462</v>
+        <v>466</v>
       </c>
       <c r="C107" t="n">
-        <v>0.004230730487816046</v>
+        <v>0.004135862185261775</v>
       </c>
     </row>
     <row r="108">
@@ -1831,634 +1831,634 @@
         </is>
       </c>
       <c r="B108" t="n">
-        <v>461</v>
+        <v>465</v>
       </c>
       <c r="C108" t="n">
-        <v>0.004221573062517743</v>
+        <v>0.00412698694452087</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="inlineStr">
         <is>
-          <t>whatsoever</t>
+          <t>utterly</t>
         </is>
       </c>
       <c r="B109" t="n">
-        <v>457</v>
+        <v>464</v>
       </c>
       <c r="C109" t="n">
-        <v>0.00418494336132453</v>
+        <v>0.004118111703779965</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="inlineStr">
         <is>
-          <t>hoping</t>
+          <t>explain</t>
         </is>
       </c>
       <c r="B110" t="n">
-        <v>457</v>
+        <v>461</v>
       </c>
       <c r="C110" t="n">
-        <v>0.00418494336132453</v>
+        <v>0.00409148598155725</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="inlineStr">
         <is>
-          <t>suppose</t>
+          <t>science</t>
         </is>
       </c>
       <c r="B111" t="n">
         <v>456</v>
       </c>
       <c r="C111" t="n">
-        <v>0.004175785936026227</v>
+        <v>0.004047109777852724</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="1" t="inlineStr">
         <is>
-          <t>amusing</t>
+          <t>credit</t>
         </is>
       </c>
       <c r="B112" t="n">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="C112" t="n">
-        <v>0.004166628510727924</v>
+        <v>0.004047109777852724</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="1" t="inlineStr">
         <is>
-          <t>entirely</t>
+          <t>nobody</t>
         </is>
       </c>
       <c r="B113" t="n">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="C113" t="n">
-        <v>0.00415747108542962</v>
+        <v>0.004038234537111819</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="1" t="inlineStr">
         <is>
-          <t>sick</t>
+          <t>decide</t>
         </is>
       </c>
       <c r="B114" t="n">
         <v>453</v>
       </c>
       <c r="C114" t="n">
-        <v>0.004148313660131317</v>
+        <v>0.004020484055630009</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="1" t="inlineStr">
         <is>
-          <t>computer</t>
+          <t>sitting</t>
         </is>
       </c>
       <c r="B115" t="n">
         <v>453</v>
       </c>
       <c r="C115" t="n">
-        <v>0.004148313660131317</v>
+        <v>0.004020484055630009</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="1" t="inlineStr">
         <is>
-          <t>random</t>
+          <t>basic</t>
         </is>
       </c>
       <c r="B116" t="n">
         <v>453</v>
       </c>
       <c r="C116" t="n">
-        <v>0.004148313660131317</v>
+        <v>0.004020484055630009</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="1" t="inlineStr">
         <is>
-          <t>decide</t>
+          <t>suppose</t>
         </is>
       </c>
       <c r="B117" t="n">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="C117" t="n">
-        <v>0.004129998809534711</v>
+        <v>0.004011608814889104</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="inlineStr">
         <is>
-          <t>sitting</t>
+          <t>sucks</t>
         </is>
       </c>
       <c r="B118" t="n">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="C118" t="n">
-        <v>0.004120841384236408</v>
+        <v>0.004002733574148199</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="1" t="inlineStr">
         <is>
-          <t>wooden</t>
+          <t>purpose</t>
         </is>
       </c>
       <c r="B119" t="n">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="C119" t="n">
-        <v>0.004120841384236408</v>
+        <v>0.003976107851925484</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="1" t="inlineStr">
         <is>
-          <t>purpose</t>
+          <t>whatsoever</t>
         </is>
       </c>
       <c r="B120" t="n">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="C120" t="n">
-        <v>0.004120841384236408</v>
+        <v>0.003967232611184578</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="1" t="inlineStr">
         <is>
-          <t>nobody</t>
+          <t>entirely</t>
         </is>
       </c>
       <c r="B121" t="n">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="C121" t="n">
-        <v>0.004120841384236408</v>
+        <v>0.003958357370443673</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="1" t="inlineStr">
         <is>
-          <t>naked</t>
+          <t>hoping</t>
         </is>
       </c>
       <c r="B122" t="n">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="C122" t="n">
-        <v>0.004102526533639802</v>
+        <v>0.003940606888961863</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="1" t="inlineStr">
         <is>
-          <t>utterly</t>
+          <t>mediocre</t>
         </is>
       </c>
       <c r="B123" t="n">
-        <v>448</v>
+        <v>442</v>
       </c>
       <c r="C123" t="n">
-        <v>0.004102526533639802</v>
+        <v>0.003922856407480053</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="1" t="inlineStr">
         <is>
-          <t>wow</t>
+          <t>redeeming</t>
         </is>
       </c>
       <c r="B124" t="n">
-        <v>447</v>
+        <v>439</v>
       </c>
       <c r="C124" t="n">
-        <v>0.004093369108341498</v>
+        <v>0.003896230685257338</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="1" t="inlineStr">
         <is>
-          <t>ed</t>
+          <t>na</t>
         </is>
       </c>
       <c r="B125" t="n">
-        <v>446</v>
+        <v>434</v>
       </c>
       <c r="C125" t="n">
-        <v>0.004084211683043196</v>
+        <v>0.003851854481552812</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="1" t="inlineStr">
         <is>
-          <t>college</t>
+          <t>wooden</t>
         </is>
       </c>
       <c r="B126" t="n">
-        <v>439</v>
+        <v>433</v>
       </c>
       <c r="C126" t="n">
-        <v>0.004020109705955074</v>
+        <v>0.003842979240811907</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="1" t="inlineStr">
         <is>
-          <t>hey</t>
+          <t>naked</t>
         </is>
       </c>
       <c r="B127" t="n">
-        <v>439</v>
+        <v>429</v>
       </c>
       <c r="C127" t="n">
-        <v>0.004020109705955074</v>
+        <v>0.003807478277848286</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="1" t="inlineStr">
         <is>
-          <t>mediocre</t>
+          <t>giant</t>
         </is>
       </c>
       <c r="B128" t="n">
-        <v>437</v>
+        <v>428</v>
       </c>
       <c r="C128" t="n">
-        <v>0.004001794855358468</v>
+        <v>0.003798603037107382</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="1" t="inlineStr">
         <is>
-          <t>basic</t>
+          <t>wow</t>
         </is>
       </c>
       <c r="B129" t="n">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="C129" t="n">
-        <v>0.003956007728866952</v>
+        <v>0.003798603037107382</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="1" t="inlineStr">
         <is>
-          <t>revenge</t>
+          <t>gang</t>
         </is>
       </c>
       <c r="B130" t="n">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="C130" t="n">
-        <v>0.003946850303568649</v>
+        <v>0.003789727796366476</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="1" t="inlineStr">
         <is>
-          <t>shooting</t>
+          <t>amusing</t>
         </is>
       </c>
       <c r="B131" t="n">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C131" t="n">
-        <v>0.003919378027673739</v>
+        <v>0.003789727796366476</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="1" t="inlineStr">
         <is>
-          <t>rip</t>
+          <t>bizarre</t>
         </is>
       </c>
       <c r="B132" t="n">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C132" t="n">
-        <v>0.003910220602375436</v>
+        <v>0.003780852555625572</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="1" t="inlineStr">
         <is>
-          <t>na</t>
+          <t>revenge</t>
         </is>
       </c>
       <c r="B133" t="n">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="C133" t="n">
-        <v>0.003910220602375436</v>
+        <v>0.003771977314884666</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="1" t="inlineStr">
         <is>
-          <t>fair</t>
+          <t>ed</t>
         </is>
       </c>
       <c r="B134" t="n">
         <v>425</v>
       </c>
       <c r="C134" t="n">
-        <v>0.00389190575177883</v>
+        <v>0.003771977314884666</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="1" t="inlineStr">
         <is>
-          <t>disaster</t>
+          <t>hey</t>
         </is>
       </c>
       <c r="B135" t="n">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="C135" t="n">
-        <v>0.00389190575177883</v>
+        <v>0.003745351592661951</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="1" t="inlineStr">
         <is>
-          <t>rated</t>
+          <t>super</t>
         </is>
       </c>
       <c r="B136" t="n">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="C136" t="n">
-        <v>0.003882748326480527</v>
+        <v>0.003736476351921046</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="1" t="inlineStr">
         <is>
-          <t>porn</t>
+          <t>vampire</t>
         </is>
       </c>
       <c r="B137" t="n">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="C137" t="n">
-        <v>0.003882748326480527</v>
+        <v>0.003709850629698331</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="1" t="inlineStr">
         <is>
-          <t>super</t>
+          <t>thrown</t>
         </is>
       </c>
       <c r="B138" t="n">
-        <v>423</v>
+        <v>417</v>
       </c>
       <c r="C138" t="n">
-        <v>0.003873590901182224</v>
+        <v>0.003700975388957425</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="1" t="inlineStr">
         <is>
-          <t>holes</t>
+          <t>lacks</t>
         </is>
       </c>
       <c r="B139" t="n">
-        <v>422</v>
+        <v>416</v>
       </c>
       <c r="C139" t="n">
-        <v>0.00386443347588392</v>
+        <v>0.00369210014821652</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="1" t="inlineStr">
         <is>
-          <t>thrown</t>
+          <t>compared</t>
         </is>
       </c>
       <c r="B140" t="n">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="C140" t="n">
-        <v>0.003855276050585617</v>
+        <v>0.00369210014821652</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="1" t="inlineStr">
         <is>
-          <t>cat</t>
+          <t>paid</t>
         </is>
       </c>
       <c r="B141" t="n">
-        <v>420</v>
+        <v>414</v>
       </c>
       <c r="C141" t="n">
-        <v>0.003846118625287314</v>
+        <v>0.00367434966673471</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="1" t="inlineStr">
         <is>
-          <t>spoiler</t>
+          <t>disaster</t>
         </is>
       </c>
       <c r="B142" t="n">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="C142" t="n">
-        <v>0.003827803774690708</v>
+        <v>0.003665474425993805</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="1" t="inlineStr">
         <is>
-          <t>pass</t>
+          <t>spoiler</t>
         </is>
       </c>
       <c r="B143" t="n">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="C143" t="n">
-        <v>0.003818646349392405</v>
+        <v>0.003665474425993805</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="1" t="inlineStr">
         <is>
-          <t>supposedly</t>
+          <t>impossible</t>
         </is>
       </c>
       <c r="B144" t="n">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="C144" t="n">
-        <v>0.003818646349392405</v>
+        <v>0.0036565991852529</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="1" t="inlineStr">
         <is>
-          <t>throw</t>
+          <t>holes</t>
         </is>
       </c>
       <c r="B145" t="n">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="C145" t="n">
-        <v>0.003791174073497495</v>
+        <v>0.0036565991852529</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="1" t="inlineStr">
         <is>
-          <t>impossible</t>
+          <t>computer</t>
         </is>
       </c>
       <c r="B146" t="n">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="C146" t="n">
-        <v>0.003763701797602586</v>
+        <v>0.0036565991852529</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="1" t="inlineStr">
         <is>
-          <t>walking</t>
+          <t>pass</t>
         </is>
       </c>
       <c r="B147" t="n">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="C147" t="n">
-        <v>0.00374538694700598</v>
+        <v>0.003647723944511995</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="1" t="inlineStr">
         <is>
-          <t>cgi</t>
+          <t>rip</t>
         </is>
       </c>
       <c r="B148" t="n">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="C148" t="n">
-        <v>0.003736229521707677</v>
+        <v>0.003647723944511995</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="1" t="inlineStr">
         <is>
-          <t>rented</t>
+          <t>supposedly</t>
         </is>
       </c>
       <c r="B149" t="n">
-        <v>404</v>
+        <v>411</v>
       </c>
       <c r="C149" t="n">
-        <v>0.003699599820514464</v>
+        <v>0.003647723944511995</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="1" t="inlineStr">
         <is>
-          <t>giant</t>
+          <t>confusing</t>
         </is>
       </c>
       <c r="B150" t="n">
-        <v>404</v>
+        <v>410</v>
       </c>
       <c r="C150" t="n">
-        <v>0.003699599820514464</v>
+        <v>0.00363884870377109</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="1" t="inlineStr">
         <is>
-          <t>gang</t>
+          <t>seconds</t>
         </is>
       </c>
       <c r="B151" t="n">
-        <v>402</v>
+        <v>410</v>
       </c>
       <c r="C151" t="n">
-        <v>0.003681284969917858</v>
+        <v>0.00363884870377109</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="1" t="inlineStr">
         <is>
-          <t>conclusion</t>
+          <t>rated</t>
         </is>
       </c>
       <c r="B152" t="n">
-        <v>402</v>
+        <v>409</v>
       </c>
       <c r="C152" t="n">
-        <v>0.003681284969917858</v>
+        <v>0.003629973463030185</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="1" t="inlineStr">
         <is>
-          <t>ghost</t>
+          <t>throw</t>
         </is>
       </c>
       <c r="B153" t="n">
-        <v>401</v>
+        <v>408</v>
       </c>
       <c r="C153" t="n">
-        <v>0.003672127544619555</v>
+        <v>0.00362109822228928</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="1" t="inlineStr">
         <is>
-          <t>door</t>
+          <t>drug</t>
         </is>
       </c>
       <c r="B154" t="n">
-        <v>400</v>
+        <v>405</v>
       </c>
       <c r="C154" t="n">
-        <v>0.003662970119321251</v>
+        <v>0.003594472500066564</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="1" t="inlineStr">
         <is>
-          <t>ugly</t>
+          <t>fair</t>
         </is>
       </c>
       <c r="B155" t="n">
-        <v>399</v>
+        <v>405</v>
       </c>
       <c r="C155" t="n">
-        <v>0.003653812694022949</v>
+        <v>0.003594472500066564</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="1" t="inlineStr">
         <is>
-          <t>paid</t>
+          <t>walking</t>
         </is>
       </c>
       <c r="B156" t="n">
-        <v>399</v>
+        <v>405</v>
       </c>
       <c r="C156" t="n">
-        <v>0.003653812694022949</v>
+        <v>0.003594472500066564</v>
       </c>
     </row>
     <row r="157">
@@ -2468,75 +2468,75 @@
         </is>
       </c>
       <c r="B157" t="n">
-        <v>398</v>
+        <v>404</v>
       </c>
       <c r="C157" t="n">
-        <v>0.003644655268724646</v>
+        <v>0.003585597259325659</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="1" t="inlineStr">
         <is>
-          <t>confusing</t>
+          <t>ghost</t>
         </is>
       </c>
       <c r="B158" t="n">
-        <v>397</v>
+        <v>403</v>
       </c>
       <c r="C158" t="n">
-        <v>0.003635497843426342</v>
+        <v>0.003576722018584754</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="1" t="inlineStr">
         <is>
-          <t>seconds</t>
+          <t>zero</t>
         </is>
       </c>
       <c r="B159" t="n">
-        <v>396</v>
+        <v>402</v>
       </c>
       <c r="C159" t="n">
-        <v>0.003626340418128039</v>
+        <v>0.003567846777843849</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="1" t="inlineStr">
         <is>
-          <t>zero</t>
+          <t>aside</t>
         </is>
       </c>
       <c r="B160" t="n">
-        <v>395</v>
+        <v>401</v>
       </c>
       <c r="C160" t="n">
-        <v>0.003617182992829736</v>
+        <v>0.003558971537102944</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="1" t="inlineStr">
         <is>
-          <t>mistake</t>
+          <t>pick</t>
         </is>
       </c>
       <c r="B161" t="n">
-        <v>395</v>
+        <v>400</v>
       </c>
       <c r="C161" t="n">
-        <v>0.003617182992829736</v>
+        <v>0.003550096296362039</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="1" t="inlineStr">
         <is>
-          <t>standard</t>
+          <t>shooting</t>
         </is>
       </c>
       <c r="B162" t="n">
-        <v>394</v>
+        <v>400</v>
       </c>
       <c r="C162" t="n">
-        <v>0.003608025567531433</v>
+        <v>0.003550096296362039</v>
       </c>
     </row>
     <row r="163">
@@ -2546,231 +2546,348 @@
         </is>
       </c>
       <c r="B163" t="n">
-        <v>394</v>
+        <v>399</v>
       </c>
       <c r="C163" t="n">
-        <v>0.003608025567531433</v>
+        <v>0.003541221055621134</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="1" t="inlineStr">
         <is>
-          <t>attack</t>
+          <t>creature</t>
         </is>
       </c>
       <c r="B164" t="n">
-        <v>390</v>
+        <v>398</v>
       </c>
       <c r="C164" t="n">
-        <v>0.003571395866338221</v>
+        <v>0.003532345814880229</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="1" t="inlineStr">
         <is>
-          <t>aside</t>
+          <t>mistake</t>
         </is>
       </c>
       <c r="B165" t="n">
-        <v>390</v>
+        <v>398</v>
       </c>
       <c r="C165" t="n">
-        <v>0.003571395866338221</v>
+        <v>0.003532345814880229</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="1" t="inlineStr">
         <is>
-          <t>g</t>
+          <t>ugly</t>
         </is>
       </c>
       <c r="B166" t="n">
-        <v>389</v>
+        <v>397</v>
       </c>
       <c r="C166" t="n">
-        <v>0.003562238441039917</v>
+        <v>0.003523470574139324</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="1" t="inlineStr">
         <is>
-          <t>million</t>
+          <t>chase</t>
         </is>
       </c>
       <c r="B167" t="n">
-        <v>389</v>
+        <v>395</v>
       </c>
       <c r="C167" t="n">
-        <v>0.003562238441039917</v>
+        <v>0.003505720092657514</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="1" t="inlineStr">
         <is>
-          <t>pick</t>
+          <t>door</t>
         </is>
       </c>
       <c r="B168" t="n">
-        <v>388</v>
+        <v>392</v>
       </c>
       <c r="C168" t="n">
-        <v>0.003553081015741614</v>
+        <v>0.003479094370434798</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="1" t="inlineStr">
         <is>
-          <t>plan</t>
+          <t>tired</t>
         </is>
       </c>
       <c r="B169" t="n">
-        <v>387</v>
+        <v>392</v>
       </c>
       <c r="C169" t="n">
-        <v>0.003543923590443311</v>
+        <v>0.003479094370434798</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="1" t="inlineStr">
         <is>
-          <t>bizarre</t>
+          <t>bought</t>
         </is>
       </c>
       <c r="B170" t="n">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="C170" t="n">
-        <v>0.003543923590443311</v>
+        <v>0.003461343888952988</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="1" t="inlineStr">
         <is>
-          <t>generally</t>
+          <t>porn</t>
         </is>
       </c>
       <c r="B171" t="n">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="C171" t="n">
-        <v>0.003534766165145008</v>
+        <v>0.003461343888952988</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="1" t="inlineStr">
         <is>
-          <t>chase</t>
+          <t>christian</t>
         </is>
       </c>
       <c r="B172" t="n">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="C172" t="n">
-        <v>0.003525608739846705</v>
+        <v>0.003443593407471177</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="1" t="inlineStr">
         <is>
-          <t>sam</t>
+          <t>rented</t>
         </is>
       </c>
       <c r="B173" t="n">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="C173" t="n">
-        <v>0.003516451314548402</v>
+        <v>0.003443593407471177</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="1" t="inlineStr">
         <is>
-          <t>names</t>
+          <t>conclusion</t>
         </is>
       </c>
       <c r="B174" t="n">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="C174" t="n">
-        <v>0.003516451314548402</v>
+        <v>0.003443593407471177</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="1" t="inlineStr">
         <is>
-          <t>military</t>
+          <t>standard</t>
         </is>
       </c>
       <c r="B175" t="n">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="C175" t="n">
-        <v>0.003516451314548402</v>
+        <v>0.003443593407471177</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="1" t="inlineStr">
         <is>
-          <t>thinks</t>
+          <t>producer</t>
         </is>
       </c>
       <c r="B176" t="n">
-        <v>382</v>
+        <v>387</v>
       </c>
       <c r="C176" t="n">
-        <v>0.003498136463951795</v>
+        <v>0.003434718166730273</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="1" t="inlineStr">
         <is>
-          <t>bought</t>
+          <t>camp</t>
         </is>
       </c>
       <c r="B177" t="n">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="C177" t="n">
-        <v>0.003498136463951795</v>
+        <v>0.003425842925989367</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="1" t="inlineStr">
         <is>
-          <t>ship</t>
+          <t>attack</t>
         </is>
       </c>
       <c r="B178" t="n">
-        <v>381</v>
+        <v>386</v>
       </c>
       <c r="C178" t="n">
-        <v>0.003488979038653492</v>
+        <v>0.003425842925989367</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="1" t="inlineStr">
         <is>
-          <t>tired</t>
+          <t>thinks</t>
         </is>
       </c>
       <c r="B179" t="n">
-        <v>381</v>
+        <v>385</v>
       </c>
       <c r="C179" t="n">
-        <v>0.003488979038653492</v>
+        <v>0.003416967685248462</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="1" t="inlineStr">
         <is>
+          <t>values</t>
+        </is>
+      </c>
+      <c r="B180" t="n">
+        <v>385</v>
+      </c>
+      <c r="C180" t="n">
+        <v>0.003416967685248462</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="1" t="inlineStr">
+        <is>
+          <t>runs</t>
+        </is>
+      </c>
+      <c r="B181" t="n">
+        <v>384</v>
+      </c>
+      <c r="C181" t="n">
+        <v>0.003408092444507557</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="1" t="inlineStr">
+        <is>
+          <t>unfunny</t>
+        </is>
+      </c>
+      <c r="B182" t="n">
+        <v>384</v>
+      </c>
+      <c r="C182" t="n">
+        <v>0.003408092444507557</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="1" t="inlineStr">
+        <is>
+          <t>sub</t>
+        </is>
+      </c>
+      <c r="B183" t="n">
+        <v>383</v>
+      </c>
+      <c r="C183" t="n">
+        <v>0.003399217203766652</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="1" t="inlineStr">
+        <is>
+          <t>jones</t>
+        </is>
+      </c>
+      <c r="B184" t="n">
+        <v>383</v>
+      </c>
+      <c r="C184" t="n">
+        <v>0.003399217203766652</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="1" t="inlineStr">
+        <is>
+          <t>cgi</t>
+        </is>
+      </c>
+      <c r="B185" t="n">
+        <v>382</v>
+      </c>
+      <c r="C185" t="n">
+        <v>0.003390341963025747</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="1" t="inlineStr">
+        <is>
+          <t>involving</t>
+        </is>
+      </c>
+      <c r="B186" t="n">
+        <v>381</v>
+      </c>
+      <c r="C186" t="n">
+        <v>0.003381466722284842</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="1" t="inlineStr">
+        <is>
           <t>ex</t>
         </is>
       </c>
-      <c r="B180" t="n">
-        <v>378</v>
-      </c>
-      <c r="C180" t="n">
-        <v>0.003461506762758583</v>
+      <c r="B187" t="n">
+        <v>380</v>
+      </c>
+      <c r="C187" t="n">
+        <v>0.003372591481543937</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="1" t="inlineStr">
+        <is>
+          <t>generally</t>
+        </is>
+      </c>
+      <c r="B188" t="n">
+        <v>379</v>
+      </c>
+      <c r="C188" t="n">
+        <v>0.003363716240803032</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="1" t="inlineStr">
+        <is>
+          <t>books</t>
+        </is>
+      </c>
+      <c r="B189" t="n">
+        <v>379</v>
+      </c>
+      <c r="C189" t="n">
+        <v>0.003363716240803032</v>
       </c>
     </row>
   </sheetData>
@@ -2784,7 +2901,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C180"/>
+  <dimension ref="A1:C189"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2811,10 +2928,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>987</v>
+        <v>961</v>
       </c>
       <c r="C2" t="n">
-        <v>0.01089091430715247</v>
+        <v>0.01019531291441666</v>
       </c>
     </row>
     <row r="3">
@@ -2824,10 +2941,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>894</v>
+        <v>899</v>
       </c>
       <c r="C3" t="n">
-        <v>0.009864718734138106</v>
+        <v>0.009537550790905909</v>
       </c>
     </row>
     <row r="4">
@@ -2837,530 +2954,530 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>893</v>
+        <v>872</v>
       </c>
       <c r="C4" t="n">
-        <v>0.009853684373137951</v>
+        <v>0.009251105995183483</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>realistic</t>
+          <t>oscar</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>860</v>
+        <v>869</v>
       </c>
       <c r="C5" t="n">
-        <v>0.009489550460132853</v>
+        <v>0.009219278795658771</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>oscar</t>
+          <t>realistic</t>
         </is>
       </c>
       <c r="B6" t="n">
         <v>859</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0094785160991327</v>
+        <v>0.009113188130576391</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>tale</t>
+          <t>perfectly</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>841</v>
+        <v>797</v>
       </c>
       <c r="C7" t="n">
-        <v>0.009279897601129919</v>
+        <v>0.008455426007065638</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>season</t>
+          <t>memorable</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>779</v>
+        <v>761</v>
       </c>
       <c r="C8" t="n">
-        <v>0.008595767219120341</v>
+        <v>0.008073499612769073</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>masterpiece</t>
+          <t>unique</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>774</v>
+        <v>760</v>
       </c>
       <c r="C9" t="n">
-        <v>0.008540595414119568</v>
+        <v>0.008062890546260835</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>unique</t>
+          <t>beauty</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>766</v>
+        <v>760</v>
       </c>
       <c r="C10" t="n">
-        <v>0.008452320526118332</v>
+        <v>0.008062890546260835</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>powerful</t>
+          <t>season</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>761</v>
+        <v>756</v>
       </c>
       <c r="C11" t="n">
-        <v>0.00839714872111756</v>
+        <v>0.008020454280227882</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>beauty</t>
+          <t>powerful</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>753</v>
+        <v>755</v>
       </c>
       <c r="C12" t="n">
-        <v>0.008308873833116324</v>
+        <v>0.008009845213719644</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>perfectly</t>
+          <t>masterpiece</t>
         </is>
       </c>
       <c r="B13" t="n">
         <v>752</v>
       </c>
       <c r="C13" t="n">
-        <v>0.00829783947211617</v>
+        <v>0.007978018014194932</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>atmosphere</t>
+          <t>society</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>748</v>
+        <v>726</v>
       </c>
       <c r="C14" t="n">
-        <v>0.008253702028115551</v>
+        <v>0.007702182284980745</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>memorable</t>
+          <t>emotional</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>741</v>
+        <v>720</v>
       </c>
       <c r="C15" t="n">
-        <v>0.008176461501114471</v>
+        <v>0.007638527885931317</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>emotional</t>
+          <t>personal</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>741</v>
+        <v>681</v>
       </c>
       <c r="C16" t="n">
-        <v>0.008176461501114471</v>
+        <v>0.007224774292110037</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>society</t>
+          <t>nature</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>728</v>
+        <v>681</v>
       </c>
       <c r="C17" t="n">
-        <v>0.008033014808112462</v>
+        <v>0.007224774292110037</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>nature</t>
+          <t>meets</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>714</v>
+        <v>679</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0078785337541103</v>
+        <v>0.007203556159093561</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>personal</t>
+          <t>brings</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>699</v>
+        <v>666</v>
       </c>
       <c r="C19" t="n">
-        <v>0.007713018339107982</v>
+        <v>0.007065638294486468</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>meets</t>
+          <t>era</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>688</v>
+        <v>655</v>
       </c>
       <c r="C20" t="n">
-        <v>0.007591640368106283</v>
+        <v>0.006948938562895851</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>brings</t>
+          <t>incredible</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>670</v>
+        <v>646</v>
       </c>
       <c r="C21" t="n">
-        <v>0.007393021870103502</v>
+        <v>0.006853456964321709</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>era</t>
+          <t>keeps</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>652</v>
+        <v>632</v>
       </c>
       <c r="C22" t="n">
-        <v>0.007194403372100722</v>
+        <v>0.006704930033206378</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>incredible</t>
+          <t>dream</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>651</v>
+        <v>602</v>
       </c>
       <c r="C23" t="n">
-        <v>0.007183369011100567</v>
+        <v>0.00638665803795924</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>keeps</t>
+          <t>sweet</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>624</v>
+        <v>600</v>
       </c>
       <c r="C24" t="n">
-        <v>0.006885441264096396</v>
+        <v>0.006365439904942764</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>sweet</t>
+          <t>william</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>623</v>
+        <v>593</v>
       </c>
       <c r="C25" t="n">
-        <v>0.006874406903096241</v>
+        <v>0.006291176439385099</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>beautifully</t>
+          <t>unlike</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>612</v>
+        <v>592</v>
       </c>
       <c r="C26" t="n">
-        <v>0.006753028932094543</v>
+        <v>0.00628056737287686</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>portrayal</t>
+          <t>recommended</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>608</v>
+        <v>590</v>
       </c>
       <c r="C27" t="n">
-        <v>0.006708891488093924</v>
+        <v>0.006259349239860385</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>political</t>
+          <t>recently</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>603</v>
+        <v>588</v>
       </c>
       <c r="C28" t="n">
-        <v>0.006653719683093152</v>
+        <v>0.006238131106843909</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>unlike</t>
+          <t>beautifully</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>595</v>
+        <v>588</v>
       </c>
       <c r="C29" t="n">
-        <v>0.006565444795091916</v>
+        <v>0.006238131106843909</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>william</t>
+          <t>deserves</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>592</v>
+        <v>588</v>
       </c>
       <c r="C30" t="n">
-        <v>0.006532341712091453</v>
+        <v>0.006238131106843909</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>recommended</t>
+          <t>success</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="C31" t="n">
-        <v>0.006455101185090371</v>
+        <v>0.006216912973827433</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>political</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="C32" t="n">
-        <v>0.006366826297089135</v>
+        <v>0.006100213242236816</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>recently</t>
+          <t>portrayal</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>573</v>
+        <v>566</v>
       </c>
       <c r="C33" t="n">
-        <v>0.006322688853088517</v>
+        <v>0.006004731643662675</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>solid</t>
+          <t>present</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="C34" t="n">
-        <v>0.006245448326087436</v>
+        <v>0.00597290444413796</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>journey</t>
+          <t>caught</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>565</v>
+        <v>558</v>
       </c>
       <c r="C35" t="n">
-        <v>0.006234413965087282</v>
+        <v>0.00591985911159677</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>deserves</t>
+          <t>married</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>564</v>
+        <v>557</v>
       </c>
       <c r="C36" t="n">
-        <v>0.006223379604087127</v>
+        <v>0.005909250045088532</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>married</t>
+          <t>dancing</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>564</v>
+        <v>555</v>
       </c>
       <c r="C37" t="n">
-        <v>0.006223379604087127</v>
+        <v>0.005888031912072057</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>awesome</t>
+          <t>german</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>563</v>
+        <v>553</v>
       </c>
       <c r="C38" t="n">
-        <v>0.006212345243086973</v>
+        <v>0.005866813779055581</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>century</t>
+          <t>effective</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="C39" t="n">
-        <v>0.006079932911085119</v>
+        <v>0.005856204712547343</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>touching</t>
+          <t>bond</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="C40" t="n">
-        <v>0.006068898550084964</v>
+        <v>0.005824377513022629</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>social</t>
+          <t>journey</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="C41" t="n">
-        <v>0.006068898550084964</v>
+        <v>0.005813768446514391</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>adventure</t>
+          <t>pace</t>
         </is>
       </c>
       <c r="B42" t="n">
         <v>546</v>
       </c>
       <c r="C42" t="n">
-        <v>0.006024761106084347</v>
+        <v>0.005792550313497916</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>outstanding</t>
+          <t>match</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>543</v>
+        <v>546</v>
       </c>
       <c r="C43" t="n">
-        <v>0.005991658023083883</v>
+        <v>0.005792550313497916</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>terrific</t>
+          <t>adventure</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>541</v>
+        <v>546</v>
       </c>
       <c r="C44" t="n">
-        <v>0.005969589301083574</v>
+        <v>0.005792550313497916</v>
       </c>
     </row>
     <row r="45">
@@ -3370,88 +3487,88 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>539</v>
+        <v>546</v>
       </c>
       <c r="C45" t="n">
-        <v>0.005947520579083265</v>
+        <v>0.005792550313497916</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>images</t>
+          <t>touching</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>539</v>
+        <v>545</v>
       </c>
       <c r="C46" t="n">
-        <v>0.005947520579083265</v>
+        <v>0.005781941246989677</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>german</t>
+          <t>images</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>538</v>
+        <v>544</v>
       </c>
       <c r="C47" t="n">
-        <v>0.005936486218083111</v>
+        <v>0.005771332180481439</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>effective</t>
+          <t>century</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>535</v>
+        <v>544</v>
       </c>
       <c r="C48" t="n">
-        <v>0.005903383135082647</v>
+        <v>0.005771332180481439</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>familiar</t>
+          <t>solid</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>528</v>
+        <v>543</v>
       </c>
       <c r="C49" t="n">
-        <v>0.005826142608081566</v>
+        <v>0.005760723113973201</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>pace</t>
+          <t>outstanding</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>528</v>
+        <v>542</v>
       </c>
       <c r="C50" t="n">
-        <v>0.005826142608081566</v>
+        <v>0.005750114047464963</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>follows</t>
+          <t>terrific</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>528</v>
+        <v>538</v>
       </c>
       <c r="C51" t="n">
-        <v>0.005826142608081566</v>
+        <v>0.005707677781432012</v>
       </c>
     </row>
     <row r="52">
@@ -3461,1362 +3578,1362 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>524</v>
+        <v>536</v>
       </c>
       <c r="C52" t="n">
-        <v>0.005782005164080948</v>
+        <v>0.005686459648415536</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
         <is>
-          <t>cold</t>
+          <t>awesome</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>524</v>
+        <v>532</v>
       </c>
       <c r="C53" t="n">
-        <v>0.005782005164080948</v>
+        <v>0.005644023382382585</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
         <is>
-          <t>dancing</t>
+          <t>popular</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>523</v>
+        <v>527</v>
       </c>
       <c r="C54" t="n">
-        <v>0.005770970803080794</v>
+        <v>0.005590978049841395</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
         <is>
-          <t>popular</t>
+          <t>familiar</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>523</v>
+        <v>525</v>
       </c>
       <c r="C55" t="n">
-        <v>0.005770970803080794</v>
+        <v>0.005569759916824919</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
         <is>
-          <t>thanks</t>
+          <t>follows</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="C56" t="n">
-        <v>0.005759936442080639</v>
+        <v>0.00555915085031668</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
         <is>
-          <t>appreciate</t>
+          <t>fantasy</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>518</v>
+        <v>524</v>
       </c>
       <c r="C57" t="n">
-        <v>0.005715798998080021</v>
+        <v>0.00555915085031668</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
         <is>
-          <t>bond</t>
+          <t>appreciate</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>516</v>
+        <v>519</v>
       </c>
       <c r="C58" t="n">
-        <v>0.005693730276079712</v>
+        <v>0.005506105517775491</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
         <is>
-          <t>master</t>
+          <t>sees</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>514</v>
+        <v>519</v>
       </c>
       <c r="C59" t="n">
-        <v>0.005671661554079404</v>
+        <v>0.005506105517775491</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
         <is>
-          <t>sees</t>
+          <t>scott</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>509</v>
+        <v>512</v>
       </c>
       <c r="C60" t="n">
-        <v>0.005616489749078631</v>
+        <v>0.005431842052217826</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
         <is>
-          <t>emotions</t>
+          <t>social</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>508</v>
+        <v>512</v>
       </c>
       <c r="C61" t="n">
-        <v>0.005605455388078476</v>
+        <v>0.005431842052217826</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="inlineStr">
         <is>
-          <t>language</t>
+          <t>clever</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>508</v>
+        <v>511</v>
       </c>
       <c r="C62" t="n">
-        <v>0.005605455388078476</v>
+        <v>0.005421232985709588</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="inlineStr">
         <is>
-          <t>scott</t>
+          <t>emotions</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="C63" t="n">
-        <v>0.005583386666078168</v>
+        <v>0.005389405786184873</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="inlineStr">
         <is>
-          <t>genius</t>
+          <t>spirit</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>505</v>
+        <v>508</v>
       </c>
       <c r="C64" t="n">
-        <v>0.005572352305078013</v>
+        <v>0.005389405786184873</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="inlineStr">
         <is>
-          <t>intelligent</t>
+          <t>language</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>500</v>
+        <v>506</v>
       </c>
       <c r="C65" t="n">
-        <v>0.005517180500077241</v>
+        <v>0.005368187653168398</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="inlineStr">
         <is>
-          <t>tony</t>
+          <t>edge</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>497</v>
+        <v>506</v>
       </c>
       <c r="C66" t="n">
-        <v>0.005484077417076777</v>
+        <v>0.005368187653168398</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="inlineStr">
         <is>
-          <t>jane</t>
+          <t>pure</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>497</v>
+        <v>504</v>
       </c>
       <c r="C67" t="n">
-        <v>0.005484077417076777</v>
+        <v>0.005346969520151922</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="inlineStr">
         <is>
-          <t>complex</t>
+          <t>cold</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>491</v>
+        <v>503</v>
       </c>
       <c r="C68" t="n">
-        <v>0.005417871251075851</v>
+        <v>0.005336360453643684</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="inlineStr">
         <is>
-          <t>brothers</t>
+          <t>impressive</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>490</v>
+        <v>503</v>
       </c>
       <c r="C69" t="n">
-        <v>0.005406836890075695</v>
+        <v>0.005336360453643684</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="inlineStr">
         <is>
-          <t>stunning</t>
+          <t>intelligent</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>489</v>
+        <v>500</v>
       </c>
       <c r="C70" t="n">
-        <v>0.005395802529075541</v>
+        <v>0.00530453325411897</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="inlineStr">
         <is>
-          <t>uses</t>
+          <t>genius</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>489</v>
+        <v>498</v>
       </c>
       <c r="C71" t="n">
-        <v>0.005395802529075541</v>
+        <v>0.005283315121102495</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="inlineStr">
         <is>
-          <t>culture</t>
+          <t>rare</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>488</v>
+        <v>498</v>
       </c>
       <c r="C72" t="n">
-        <v>0.005384768168075387</v>
+        <v>0.005283315121102495</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="inlineStr">
         <is>
-          <t>impressive</t>
+          <t>moves</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>487</v>
+        <v>497</v>
       </c>
       <c r="C73" t="n">
-        <v>0.005373733807075232</v>
+        <v>0.005272706054594256</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="inlineStr">
         <is>
-          <t>rare</t>
+          <t>master</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>487</v>
+        <v>492</v>
       </c>
       <c r="C74" t="n">
-        <v>0.005373733807075232</v>
+        <v>0.005219660722053067</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="inlineStr">
         <is>
-          <t>stewart</t>
+          <t>jane</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>486</v>
+        <v>492</v>
       </c>
       <c r="C75" t="n">
-        <v>0.005362699446075078</v>
+        <v>0.005219660722053067</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="inlineStr">
         <is>
-          <t>spirit</t>
+          <t>culture</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>484</v>
+        <v>492</v>
       </c>
       <c r="C76" t="n">
-        <v>0.005340630724074769</v>
+        <v>0.005219660722053067</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="inlineStr">
         <is>
-          <t>touch</t>
+          <t>charming</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>482</v>
+        <v>491</v>
       </c>
       <c r="C77" t="n">
-        <v>0.00531856200207446</v>
+        <v>0.005209051655544829</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="inlineStr">
         <is>
-          <t>charles</t>
+          <t>complex</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>481</v>
+        <v>491</v>
       </c>
       <c r="C78" t="n">
-        <v>0.005307527641074305</v>
+        <v>0.005209051655544829</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="inlineStr">
         <is>
-          <t>charming</t>
+          <t>died</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>481</v>
+        <v>489</v>
       </c>
       <c r="C79" t="n">
-        <v>0.005307527641074305</v>
+        <v>0.005187833522528352</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="inlineStr">
         <is>
-          <t>created</t>
+          <t>former</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>480</v>
+        <v>488</v>
       </c>
       <c r="C80" t="n">
-        <v>0.005296493280074151</v>
+        <v>0.005177224456020115</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="inlineStr">
         <is>
-          <t>younger</t>
+          <t>created</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>479</v>
+        <v>488</v>
       </c>
       <c r="C81" t="n">
-        <v>0.005285458919073996</v>
+        <v>0.005177224456020115</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="inlineStr">
         <is>
-          <t>available</t>
+          <t>band</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>478</v>
+        <v>486</v>
       </c>
       <c r="C82" t="n">
-        <v>0.005274424558073842</v>
+        <v>0.005156006323003639</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="inlineStr">
         <is>
-          <t>band</t>
+          <t>surprisingly</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>477</v>
+        <v>484</v>
       </c>
       <c r="C83" t="n">
-        <v>0.005263390197073688</v>
+        <v>0.005134788189987163</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="inlineStr">
         <is>
-          <t>harry</t>
+          <t>touch</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>475</v>
+        <v>482</v>
       </c>
       <c r="C84" t="n">
-        <v>0.005241321475073378</v>
+        <v>0.005113570056970687</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="inlineStr">
         <is>
-          <t>animated</t>
+          <t>charles</t>
         </is>
       </c>
       <c r="B85" t="n">
-        <v>475</v>
+        <v>478</v>
       </c>
       <c r="C85" t="n">
-        <v>0.005241321475073378</v>
+        <v>0.005071133790937736</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="inlineStr">
         <is>
-          <t>moves</t>
+          <t>stunning</t>
         </is>
       </c>
       <c r="B86" t="n">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="C86" t="n">
-        <v>0.005241321475073378</v>
+        <v>0.005060524724429498</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="inlineStr">
         <is>
-          <t>west</t>
+          <t>natural</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="C87" t="n">
-        <v>0.005230287114073224</v>
+        <v>0.005039306591413021</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="inlineStr">
         <is>
-          <t>edge</t>
+          <t>animated</t>
         </is>
       </c>
       <c r="B88" t="n">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="C88" t="n">
-        <v>0.00521925275307307</v>
+        <v>0.005007479391888308</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="inlineStr">
         <is>
-          <t>gem</t>
+          <t>thanks</t>
         </is>
       </c>
       <c r="B89" t="n">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="C89" t="n">
-        <v>0.005186149670072606</v>
+        <v>0.005007479391888308</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="inlineStr">
         <is>
-          <t>match</t>
+          <t>stewart</t>
         </is>
       </c>
       <c r="B90" t="n">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="C90" t="n">
-        <v>0.005175115309072452</v>
+        <v>0.00499687032538007</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="inlineStr">
         <is>
-          <t>surprisingly</t>
+          <t>fear</t>
         </is>
       </c>
       <c r="B91" t="n">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="C91" t="n">
-        <v>0.005175115309072452</v>
+        <v>0.00499687032538007</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="inlineStr">
         <is>
-          <t>ben</t>
+          <t>younger</t>
         </is>
       </c>
       <c r="B92" t="n">
         <v>469</v>
       </c>
       <c r="C92" t="n">
-        <v>0.005175115309072452</v>
+        <v>0.004975652192363594</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="inlineStr">
         <is>
-          <t>silent</t>
+          <t>gem</t>
         </is>
       </c>
       <c r="B93" t="n">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="C93" t="n">
-        <v>0.005153046587072142</v>
+        <v>0.004965043125855356</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="inlineStr">
         <is>
-          <t>natural</t>
+          <t>uses</t>
         </is>
       </c>
       <c r="B94" t="n">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="C94" t="n">
-        <v>0.005142012226071988</v>
+        <v>0.004965043125855356</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="inlineStr">
         <is>
-          <t>fear</t>
+          <t>ben</t>
         </is>
       </c>
       <c r="B95" t="n">
         <v>466</v>
       </c>
       <c r="C95" t="n">
-        <v>0.005142012226071988</v>
+        <v>0.00494382499283888</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="inlineStr">
         <is>
-          <t>exciting</t>
+          <t>tony</t>
         </is>
       </c>
       <c r="B96" t="n">
         <v>466</v>
       </c>
       <c r="C96" t="n">
-        <v>0.005142012226071988</v>
+        <v>0.00494382499283888</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="inlineStr">
         <is>
-          <t>noir</t>
+          <t>situations</t>
         </is>
       </c>
       <c r="B97" t="n">
-        <v>461</v>
+        <v>466</v>
       </c>
       <c r="C97" t="n">
-        <v>0.005086840421071216</v>
+        <v>0.00494382499283888</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="inlineStr">
         <is>
-          <t>successful</t>
+          <t>west</t>
         </is>
       </c>
       <c r="B98" t="n">
-        <v>460</v>
+        <v>465</v>
       </c>
       <c r="C98" t="n">
-        <v>0.005075806060071061</v>
+        <v>0.004933215926330642</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="inlineStr">
         <is>
-          <t>law</t>
+          <t>available</t>
         </is>
       </c>
       <c r="B99" t="n">
-        <v>459</v>
+        <v>465</v>
       </c>
       <c r="C99" t="n">
-        <v>0.005064771699070907</v>
+        <v>0.004933215926330642</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="inlineStr">
         <is>
-          <t>u</t>
+          <t>south</t>
         </is>
       </c>
       <c r="B100" t="n">
-        <v>458</v>
+        <v>464</v>
       </c>
       <c r="C100" t="n">
-        <v>0.005053737338070752</v>
+        <v>0.004922606859822405</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="inlineStr">
         <is>
-          <t>lovely</t>
+          <t>frank</t>
         </is>
       </c>
       <c r="B101" t="n">
-        <v>457</v>
+        <v>464</v>
       </c>
       <c r="C101" t="n">
-        <v>0.005042702977070598</v>
+        <v>0.004922606859822405</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="inlineStr">
         <is>
-          <t>situations</t>
+          <t>brothers</t>
         </is>
       </c>
       <c r="B102" t="n">
-        <v>456</v>
+        <v>461</v>
       </c>
       <c r="C102" t="n">
-        <v>0.005031668616070443</v>
+        <v>0.00489077966029769</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="inlineStr">
         <is>
-          <t>fascinating</t>
+          <t>u</t>
         </is>
       </c>
       <c r="B103" t="n">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="C103" t="n">
-        <v>0.005031668616070443</v>
+        <v>0.004869561527281215</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="inlineStr">
         <is>
-          <t>trip</t>
+          <t>exciting</t>
         </is>
       </c>
       <c r="B104" t="n">
-        <v>455</v>
+        <v>459</v>
       </c>
       <c r="C104" t="n">
-        <v>0.005020634255070289</v>
+        <v>0.004869561527281215</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="inlineStr">
         <is>
-          <t>themes</t>
+          <t>fascinating</t>
         </is>
       </c>
       <c r="B105" t="n">
-        <v>452</v>
+        <v>459</v>
       </c>
       <c r="C105" t="n">
-        <v>0.004987531172069825</v>
+        <v>0.004869561527281215</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="inlineStr">
         <is>
-          <t>feelings</t>
+          <t>law</t>
         </is>
       </c>
       <c r="B106" t="n">
-        <v>452</v>
+        <v>458</v>
       </c>
       <c r="C106" t="n">
-        <v>0.004987531172069825</v>
+        <v>0.004858952460772977</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="inlineStr">
         <is>
-          <t>ray</t>
+          <t>adult</t>
         </is>
       </c>
       <c r="B107" t="n">
-        <v>449</v>
+        <v>457</v>
       </c>
       <c r="C107" t="n">
-        <v>0.004954428089069362</v>
+        <v>0.004848343394264739</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="inlineStr">
         <is>
-          <t>south</t>
+          <t>violent</t>
         </is>
       </c>
       <c r="B108" t="n">
-        <v>449</v>
+        <v>456</v>
       </c>
       <c r="C108" t="n">
-        <v>0.004954428089069362</v>
+        <v>0.004837734327756501</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="inlineStr">
         <is>
-          <t>adult</t>
+          <t>singing</t>
         </is>
       </c>
       <c r="B109" t="n">
-        <v>448</v>
+        <v>456</v>
       </c>
       <c r="C109" t="n">
-        <v>0.004943393728069207</v>
+        <v>0.004837734327756501</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="inlineStr">
         <is>
-          <t>former</t>
+          <t>noir</t>
         </is>
       </c>
       <c r="B110" t="n">
-        <v>448</v>
+        <v>455</v>
       </c>
       <c r="C110" t="n">
-        <v>0.004943393728069207</v>
+        <v>0.004827125261248262</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="inlineStr">
         <is>
-          <t>frank</t>
+          <t>lovely</t>
         </is>
       </c>
       <c r="B111" t="n">
-        <v>447</v>
+        <v>454</v>
       </c>
       <c r="C111" t="n">
-        <v>0.004932359367069053</v>
+        <v>0.004816516194740025</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="1" t="inlineStr">
         <is>
-          <t>fiction</t>
+          <t>harry</t>
         </is>
       </c>
       <c r="B112" t="n">
-        <v>445</v>
+        <v>451</v>
       </c>
       <c r="C112" t="n">
-        <v>0.004910290645068744</v>
+        <v>0.004784688995215311</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="1" t="inlineStr">
         <is>
-          <t>humour</t>
+          <t>successful</t>
         </is>
       </c>
       <c r="B113" t="n">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="C113" t="n">
-        <v>0.004910290645068744</v>
+        <v>0.004731643662674121</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="1" t="inlineStr">
         <is>
-          <t>studio</t>
+          <t>themes</t>
         </is>
       </c>
       <c r="B114" t="n">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="C114" t="n">
-        <v>0.004910290645068744</v>
+        <v>0.004731643662674121</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="1" t="inlineStr">
         <is>
-          <t>choice</t>
+          <t>kelly</t>
         </is>
       </c>
       <c r="B115" t="n">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="C115" t="n">
-        <v>0.004899256284068589</v>
+        <v>0.004731643662674121</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="1" t="inlineStr">
         <is>
-          <t>la</t>
+          <t>trip</t>
         </is>
       </c>
       <c r="B116" t="n">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="C116" t="n">
-        <v>0.004888221923068435</v>
+        <v>0.004721034596165883</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="1" t="inlineStr">
         <is>
-          <t>questions</t>
+          <t>ray</t>
         </is>
       </c>
       <c r="B117" t="n">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="C117" t="n">
-        <v>0.004888221923068435</v>
+        <v>0.004721034596165883</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="inlineStr">
         <is>
-          <t>innocent</t>
+          <t>charlie</t>
         </is>
       </c>
       <c r="B118" t="n">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="C118" t="n">
-        <v>0.004877187562068281</v>
+        <v>0.004699816463149408</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="1" t="inlineStr">
         <is>
-          <t>singing</t>
+          <t>twists</t>
         </is>
       </c>
       <c r="B119" t="n">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="C119" t="n">
-        <v>0.004866153201068126</v>
+        <v>0.004699816463149408</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="1" t="inlineStr">
         <is>
-          <t>chemistry</t>
+          <t>feelings</t>
         </is>
       </c>
       <c r="B120" t="n">
         <v>441</v>
       </c>
       <c r="C120" t="n">
-        <v>0.004866153201068126</v>
+        <v>0.004678598330132931</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="1" t="inlineStr">
         <is>
-          <t>recent</t>
+          <t>audiences</t>
         </is>
       </c>
       <c r="B121" t="n">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="C121" t="n">
-        <v>0.004844084479067817</v>
+        <v>0.004678598330132931</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="1" t="inlineStr">
         <is>
-          <t>audiences</t>
+          <t>paris</t>
         </is>
       </c>
       <c r="B122" t="n">
-        <v>434</v>
+        <v>440</v>
       </c>
       <c r="C122" t="n">
-        <v>0.004788912674067045</v>
+        <v>0.004667989263624693</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="1" t="inlineStr">
         <is>
-          <t>focus</t>
+          <t>chemistry</t>
         </is>
       </c>
       <c r="B123" t="n">
-        <v>434</v>
+        <v>440</v>
       </c>
       <c r="C123" t="n">
-        <v>0.004788912674067045</v>
+        <v>0.004667989263624693</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="1" t="inlineStr">
         <is>
-          <t>violent</t>
+          <t>intense</t>
         </is>
       </c>
       <c r="B124" t="n">
-        <v>434</v>
+        <v>439</v>
       </c>
       <c r="C124" t="n">
-        <v>0.004788912674067045</v>
+        <v>0.004657380197116456</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="1" t="inlineStr">
         <is>
-          <t>comedies</t>
+          <t>post</t>
         </is>
       </c>
       <c r="B125" t="n">
-        <v>434</v>
+        <v>439</v>
       </c>
       <c r="C125" t="n">
-        <v>0.004788912674067045</v>
+        <v>0.004657380197116456</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="1" t="inlineStr">
         <is>
-          <t>tone</t>
+          <t>honest</t>
         </is>
       </c>
       <c r="B126" t="n">
-        <v>434</v>
+        <v>439</v>
       </c>
       <c r="C126" t="n">
-        <v>0.004788912674067045</v>
+        <v>0.004657380197116456</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="1" t="inlineStr">
         <is>
-          <t>post</t>
+          <t>showed</t>
         </is>
       </c>
       <c r="B127" t="n">
-        <v>432</v>
+        <v>439</v>
       </c>
       <c r="C127" t="n">
-        <v>0.004766843952066736</v>
+        <v>0.004657380197116456</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="1" t="inlineStr">
         <is>
-          <t>honest</t>
+          <t>silent</t>
         </is>
       </c>
       <c r="B128" t="n">
-        <v>431</v>
+        <v>438</v>
       </c>
       <c r="C128" t="n">
-        <v>0.004755809591066582</v>
+        <v>0.004646771130608218</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="1" t="inlineStr">
         <is>
-          <t>showed</t>
+          <t>jean</t>
         </is>
       </c>
       <c r="B129" t="n">
-        <v>430</v>
+        <v>438</v>
       </c>
       <c r="C129" t="n">
-        <v>0.004744775230066427</v>
+        <v>0.004646771130608218</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="1" t="inlineStr">
         <is>
-          <t>london</t>
+          <t>win</t>
         </is>
       </c>
       <c r="B130" t="n">
-        <v>430</v>
+        <v>438</v>
       </c>
       <c r="C130" t="n">
-        <v>0.004744775230066427</v>
+        <v>0.004646771130608218</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="1" t="inlineStr">
         <is>
-          <t>glad</t>
+          <t>focus</t>
         </is>
       </c>
       <c r="B131" t="n">
-        <v>429</v>
+        <v>437</v>
       </c>
       <c r="C131" t="n">
-        <v>0.004733740869066272</v>
+        <v>0.00463616206409998</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="1" t="inlineStr">
         <is>
-          <t>twists</t>
+          <t>issues</t>
         </is>
       </c>
       <c r="B132" t="n">
-        <v>429</v>
+        <v>436</v>
       </c>
       <c r="C132" t="n">
-        <v>0.004733740869066272</v>
+        <v>0.004625552997591742</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="1" t="inlineStr">
         <is>
-          <t>knowing</t>
+          <t>smith</t>
         </is>
       </c>
       <c r="B133" t="n">
-        <v>427</v>
+        <v>435</v>
       </c>
       <c r="C133" t="n">
-        <v>0.004711672147065964</v>
+        <v>0.004614943931083504</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="1" t="inlineStr">
         <is>
-          <t>park</t>
+          <t>remains</t>
         </is>
       </c>
       <c r="B134" t="n">
-        <v>426</v>
+        <v>434</v>
       </c>
       <c r="C134" t="n">
-        <v>0.004700637786065808</v>
+        <v>0.004604334864575266</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="1" t="inlineStr">
         <is>
-          <t>issues</t>
+          <t>innocent</t>
         </is>
       </c>
       <c r="B135" t="n">
-        <v>425</v>
+        <v>432</v>
       </c>
       <c r="C135" t="n">
-        <v>0.004689603425065654</v>
+        <v>0.00458311673155879</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="1" t="inlineStr">
         <is>
-          <t>meaning</t>
+          <t>comedies</t>
         </is>
       </c>
       <c r="B136" t="n">
-        <v>424</v>
+        <v>431</v>
       </c>
       <c r="C136" t="n">
-        <v>0.0046785690640655</v>
+        <v>0.004572507665050552</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="1" t="inlineStr">
         <is>
-          <t>jim</t>
+          <t>disturbing</t>
         </is>
       </c>
       <c r="B137" t="n">
-        <v>424</v>
+        <v>429</v>
       </c>
       <c r="C137" t="n">
-        <v>0.0046785690640655</v>
+        <v>0.004551289532034077</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="1" t="inlineStr">
         <is>
-          <t>remains</t>
+          <t>humour</t>
         </is>
       </c>
       <c r="B138" t="n">
-        <v>423</v>
+        <v>429</v>
       </c>
       <c r="C138" t="n">
-        <v>0.004667534703065346</v>
+        <v>0.004551289532034077</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="1" t="inlineStr">
         <is>
-          <t>wonderfully</t>
+          <t>recent</t>
         </is>
       </c>
       <c r="B139" t="n">
-        <v>423</v>
+        <v>428</v>
       </c>
       <c r="C139" t="n">
-        <v>0.004667534703065346</v>
+        <v>0.004540680465525838</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="1" t="inlineStr">
         <is>
-          <t>paris</t>
+          <t>fiction</t>
         </is>
       </c>
       <c r="B140" t="n">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="C140" t="n">
-        <v>0.004667534703065346</v>
+        <v>0.004519462332509362</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="1" t="inlineStr">
         <is>
-          <t>gorgeous</t>
+          <t>tone</t>
         </is>
       </c>
       <c r="B141" t="n">
-        <v>420</v>
+        <v>426</v>
       </c>
       <c r="C141" t="n">
-        <v>0.004634431620064882</v>
+        <v>0.004519462332509362</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="1" t="inlineStr">
         <is>
-          <t>jean</t>
+          <t>date</t>
         </is>
       </c>
       <c r="B142" t="n">
-        <v>419</v>
+        <v>423</v>
       </c>
       <c r="C142" t="n">
-        <v>0.004623397259064728</v>
+        <v>0.004487635132984649</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="1" t="inlineStr">
         <is>
-          <t>consider</t>
+          <t>questions</t>
         </is>
       </c>
       <c r="B143" t="n">
-        <v>419</v>
+        <v>422</v>
       </c>
       <c r="C143" t="n">
-        <v>0.004623397259064728</v>
+        <v>0.004477026066476411</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="1" t="inlineStr">
         <is>
-          <t>normal</t>
+          <t>road</t>
         </is>
       </c>
       <c r="B144" t="n">
-        <v>419</v>
+        <v>422</v>
       </c>
       <c r="C144" t="n">
-        <v>0.004623397259064728</v>
+        <v>0.004477026066476411</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="1" t="inlineStr">
         <is>
-          <t>win</t>
+          <t>wonderfully</t>
         </is>
       </c>
       <c r="B145" t="n">
-        <v>418</v>
+        <v>421</v>
       </c>
       <c r="C145" t="n">
-        <v>0.004612362898064573</v>
+        <v>0.004466416999968172</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="1" t="inlineStr">
         <is>
-          <t>festival</t>
+          <t>ultimately</t>
         </is>
       </c>
       <c r="B146" t="n">
-        <v>418</v>
+        <v>421</v>
       </c>
       <c r="C146" t="n">
-        <v>0.004612362898064573</v>
+        <v>0.004466416999968172</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="1" t="inlineStr">
         <is>
-          <t>road</t>
+          <t>park</t>
         </is>
       </c>
       <c r="B147" t="n">
-        <v>417</v>
+        <v>421</v>
       </c>
       <c r="C147" t="n">
-        <v>0.004601328537064419</v>
+        <v>0.004466416999968172</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="1" t="inlineStr">
         <is>
-          <t>tough</t>
+          <t>fresh</t>
         </is>
       </c>
       <c r="B148" t="n">
-        <v>417</v>
+        <v>420</v>
       </c>
       <c r="C148" t="n">
-        <v>0.004601328537064419</v>
+        <v>0.004455807933459935</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="1" t="inlineStr">
         <is>
-          <t>charlie</t>
+          <t>starring</t>
         </is>
       </c>
       <c r="B149" t="n">
-        <v>417</v>
+        <v>420</v>
       </c>
       <c r="C149" t="n">
-        <v>0.004601328537064419</v>
+        <v>0.004455807933459935</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="1" t="inlineStr">
         <is>
-          <t>hitchcock</t>
+          <t>glad</t>
         </is>
       </c>
       <c r="B150" t="n">
-        <v>417</v>
+        <v>420</v>
       </c>
       <c r="C150" t="n">
-        <v>0.004601328537064419</v>
+        <v>0.004455807933459935</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="1" t="inlineStr">
         <is>
-          <t>award</t>
+          <t>photography</t>
         </is>
       </c>
       <c r="B151" t="n">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="C151" t="n">
-        <v>0.004590294176064264</v>
+        <v>0.004434589800443459</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="1" t="inlineStr">
         <is>
-          <t>pictures</t>
+          <t>choice</t>
         </is>
       </c>
       <c r="B152" t="n">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="C152" t="n">
-        <v>0.00457925981506411</v>
+        <v>0.004434589800443459</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="1" t="inlineStr">
         <is>
-          <t>fresh</t>
+          <t>mood</t>
         </is>
       </c>
       <c r="B153" t="n">
-        <v>414</v>
+        <v>418</v>
       </c>
       <c r="C153" t="n">
-        <v>0.004568225454063955</v>
+        <v>0.004434589800443459</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="1" t="inlineStr">
         <is>
-          <t>dreams</t>
+          <t>london</t>
         </is>
       </c>
       <c r="B154" t="n">
-        <v>414</v>
+        <v>418</v>
       </c>
       <c r="C154" t="n">
-        <v>0.004568225454063955</v>
+        <v>0.004434589800443459</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="1" t="inlineStr">
         <is>
-          <t>funniest</t>
+          <t>control</t>
         </is>
       </c>
       <c r="B155" t="n">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="C155" t="n">
-        <v>0.004568225454063955</v>
+        <v>0.004423980733935221</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="1" t="inlineStr">
         <is>
-          <t>ultimately</t>
+          <t>gorgeous</t>
         </is>
       </c>
       <c r="B156" t="n">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="C156" t="n">
-        <v>0.004557191093063801</v>
+        <v>0.004413371667426983</v>
       </c>
     </row>
     <row r="157">
@@ -4826,101 +4943,101 @@
         </is>
       </c>
       <c r="B157" t="n">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="C157" t="n">
-        <v>0.004557191093063801</v>
+        <v>0.004413371667426983</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="1" t="inlineStr">
         <is>
-          <t>leaving</t>
+          <t>soul</t>
         </is>
       </c>
       <c r="B158" t="n">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="C158" t="n">
-        <v>0.004546156732063646</v>
+        <v>0.004402762600918745</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="1" t="inlineStr">
         <is>
-          <t>ride</t>
+          <t>meaning</t>
         </is>
       </c>
       <c r="B159" t="n">
-        <v>411</v>
+        <v>415</v>
       </c>
       <c r="C159" t="n">
-        <v>0.004535122371063492</v>
+        <v>0.004402762600918745</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="1" t="inlineStr">
         <is>
-          <t>personally</t>
+          <t>normal</t>
         </is>
       </c>
       <c r="B160" t="n">
-        <v>411</v>
+        <v>415</v>
       </c>
       <c r="C160" t="n">
-        <v>0.004535122371063492</v>
+        <v>0.004402762600918745</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="1" t="inlineStr">
         <is>
-          <t>starring</t>
+          <t>award</t>
         </is>
       </c>
       <c r="B161" t="n">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="C161" t="n">
-        <v>0.004524088010063337</v>
+        <v>0.004392153534410507</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="1" t="inlineStr">
         <is>
-          <t>disturbing</t>
+          <t>magic</t>
         </is>
       </c>
       <c r="B162" t="n">
-        <v>409</v>
+        <v>414</v>
       </c>
       <c r="C162" t="n">
-        <v>0.004513053649063183</v>
+        <v>0.004392153534410507</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="1" t="inlineStr">
         <is>
-          <t>mood</t>
+          <t>stands</t>
         </is>
       </c>
       <c r="B163" t="n">
-        <v>408</v>
+        <v>413</v>
       </c>
       <c r="C163" t="n">
-        <v>0.004502019288063029</v>
+        <v>0.004381544467902269</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="1" t="inlineStr">
         <is>
-          <t>details</t>
+          <t>studio</t>
         </is>
       </c>
       <c r="B164" t="n">
-        <v>408</v>
+        <v>412</v>
       </c>
       <c r="C164" t="n">
-        <v>0.004502019288063029</v>
+        <v>0.004370935401394031</v>
       </c>
     </row>
     <row r="165">
@@ -4930,205 +5047,322 @@
         </is>
       </c>
       <c r="B165" t="n">
-        <v>408</v>
+        <v>412</v>
       </c>
       <c r="C165" t="n">
-        <v>0.004502019288063029</v>
+        <v>0.004370935401394031</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="1" t="inlineStr">
         <is>
-          <t>terms</t>
+          <t>knowing</t>
         </is>
       </c>
       <c r="B166" t="n">
-        <v>407</v>
+        <v>411</v>
       </c>
       <c r="C166" t="n">
-        <v>0.004490984927062873</v>
+        <v>0.004360326334885793</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="1" t="inlineStr">
         <is>
-          <t>smith</t>
+          <t>impressed</t>
         </is>
       </c>
       <c r="B167" t="n">
-        <v>406</v>
+        <v>410</v>
       </c>
       <c r="C167" t="n">
-        <v>0.004479950566062719</v>
+        <v>0.004349717268377556</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="1" t="inlineStr">
         <is>
-          <t>intense</t>
+          <t>tough</t>
         </is>
       </c>
       <c r="B168" t="n">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="C168" t="n">
-        <v>0.004479950566062719</v>
+        <v>0.004339108201869318</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="1" t="inlineStr">
         <is>
-          <t>date</t>
+          <t>prison</t>
         </is>
       </c>
       <c r="B169" t="n">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="C169" t="n">
-        <v>0.004479950566062719</v>
+        <v>0.00432849913536108</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="1" t="inlineStr">
         <is>
-          <t>fully</t>
+          <t>catch</t>
         </is>
       </c>
       <c r="B170" t="n">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="C170" t="n">
-        <v>0.004479950566062719</v>
+        <v>0.004317890068852841</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="1" t="inlineStr">
         <is>
-          <t>magic</t>
+          <t>helps</t>
         </is>
       </c>
       <c r="B171" t="n">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="C171" t="n">
-        <v>0.004468916205062565</v>
+        <v>0.004317890068852841</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="1" t="inlineStr">
         <is>
-          <t>blue</t>
+          <t>relationships</t>
         </is>
       </c>
       <c r="B172" t="n">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="C172" t="n">
-        <v>0.004457881844062411</v>
+        <v>0.004307281002344603</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="1" t="inlineStr">
         <is>
-          <t>stands</t>
+          <t>jim</t>
         </is>
       </c>
       <c r="B173" t="n">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="C173" t="n">
-        <v>0.004457881844062411</v>
+        <v>0.004307281002344603</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="1" t="inlineStr">
         <is>
-          <t>opera</t>
+          <t>compelling</t>
         </is>
       </c>
       <c r="B174" t="n">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="C174" t="n">
-        <v>0.004446847483062256</v>
+        <v>0.004296671935836366</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="1" t="inlineStr">
         <is>
-          <t>considered</t>
+          <t>terms</t>
         </is>
       </c>
       <c r="B175" t="n">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="C175" t="n">
-        <v>0.004435813122062101</v>
+        <v>0.004296671935836366</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="1" t="inlineStr">
         <is>
-          <t>catch</t>
+          <t>friendship</t>
         </is>
       </c>
       <c r="B176" t="n">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="C176" t="n">
-        <v>0.004435813122062101</v>
+        <v>0.00427545380281989</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="1" t="inlineStr">
         <is>
-          <t>soul</t>
+          <t>respect</t>
         </is>
       </c>
       <c r="B177" t="n">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="C177" t="n">
-        <v>0.004424778761061947</v>
+        <v>0.00427545380281989</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="1" t="inlineStr">
         <is>
-          <t>key</t>
+          <t>festival</t>
         </is>
       </c>
       <c r="B178" t="n">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="C178" t="n">
-        <v>0.004413744400061793</v>
+        <v>0.004264844736311652</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="1" t="inlineStr">
         <is>
-          <t>values</t>
+          <t>week</t>
         </is>
       </c>
       <c r="B179" t="n">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="C179" t="n">
-        <v>0.004402710039061638</v>
+        <v>0.004264844736311652</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="1" t="inlineStr">
         <is>
+          <t>blue</t>
+        </is>
+      </c>
+      <c r="B180" t="n">
+        <v>401</v>
+      </c>
+      <c r="C180" t="n">
+        <v>0.004254235669803414</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="1" t="inlineStr">
+        <is>
+          <t>ride</t>
+        </is>
+      </c>
+      <c r="B181" t="n">
+        <v>401</v>
+      </c>
+      <c r="C181" t="n">
+        <v>0.004254235669803414</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="1" t="inlineStr">
+        <is>
+          <t>dreams</t>
+        </is>
+      </c>
+      <c r="B182" t="n">
+        <v>400</v>
+      </c>
+      <c r="C182" t="n">
+        <v>0.004243626603295176</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="1" t="inlineStr">
+        <is>
+          <t>personally</t>
+        </is>
+      </c>
+      <c r="B183" t="n">
+        <v>399</v>
+      </c>
+      <c r="C183" t="n">
+        <v>0.004233017536786938</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="1" t="inlineStr">
+        <is>
+          <t>marriage</t>
+        </is>
+      </c>
+      <c r="B184" t="n">
+        <v>398</v>
+      </c>
+      <c r="C184" t="n">
+        <v>0.0042224084702787</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="1" t="inlineStr">
+        <is>
           <t>detective</t>
         </is>
       </c>
-      <c r="B180" t="n">
-        <v>399</v>
-      </c>
-      <c r="C180" t="n">
-        <v>0.004402710039061638</v>
+      <c r="B185" t="n">
+        <v>398</v>
+      </c>
+      <c r="C185" t="n">
+        <v>0.0042224084702787</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="1" t="inlineStr">
+        <is>
+          <t>consider</t>
+        </is>
+      </c>
+      <c r="B186" t="n">
+        <v>398</v>
+      </c>
+      <c r="C186" t="n">
+        <v>0.0042224084702787</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="1" t="inlineStr">
+        <is>
+          <t>fully</t>
+        </is>
+      </c>
+      <c r="B187" t="n">
+        <v>398</v>
+      </c>
+      <c r="C187" t="n">
+        <v>0.0042224084702787</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="1" t="inlineStr">
+        <is>
+          <t>immediately</t>
+        </is>
+      </c>
+      <c r="B188" t="n">
+        <v>397</v>
+      </c>
+      <c r="C188" t="n">
+        <v>0.004211799403770462</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="1" t="inlineStr">
+        <is>
+          <t>funniest</t>
+        </is>
+      </c>
+      <c r="B189" t="n">
+        <v>396</v>
+      </c>
+      <c r="C189" t="n">
+        <v>0.004201190337262225</v>
       </c>
     </row>
   </sheetData>
